--- a/Slaves/ESP32_Slaves_V0/ESP32_Slaves_V0_BOM.xlsx
+++ b/Slaves/ESP32_Slaves_V0/ESP32_Slaves_V0_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
   <si>
     <t>NO.</t>
   </si>
@@ -254,7 +254,7 @@
     <t>https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050</t>
   </si>
   <si>
-    <t>J3</t>
+    <t>J3，J4，J9,J19</t>
   </si>
   <si>
     <t>PB MB</t>
@@ -263,30 +263,6 @@
     <t>Library:JST_VH_B2P-VH-B_1x02_P3.96mm_Vertical</t>
   </si>
   <si>
-    <t>https://tools.molex.com/pdm_docs/sd/705430001_sd.pdf</t>
-  </si>
-  <si>
-    <t>Connector Header Through Hole 2 position 0.100" (2.54mm)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/molex/0705430001/114915?s=N4IgTCBcDaIOwAYCsAWAzAWgdgjCAugL5A</t>
-  </si>
-  <si>
-    <t>70543-0001</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>PB MA</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>BAT+</t>
-  </si>
-  <si>
     <t>https://www.jst-mfg.com/product/pdf/eng/eVH.pdf</t>
   </si>
   <si>
@@ -297,12 +273,6 @@
   </si>
   <si>
     <t>B2P-VH</t>
-  </si>
-  <si>
-    <t>J10</t>
-  </si>
-  <si>
-    <t>PACK-</t>
   </si>
   <si>
     <t>Q1-Q12</t>
@@ -564,10 +534,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,13 +555,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,6 +570,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,139 +1052,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1214,10 +1195,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1227,6 +1208,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1762,864 +1749,777 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:9">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:9">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:9">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:9">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="81" spans="1:9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:9">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:9">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="67.5" spans="1:9">
-      <c r="A12" s="2">
+    <row r="12" s="1" customFormat="1" ht="54" spans="1:9">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="94.5" spans="1:9">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="81" spans="1:9">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="67.5" spans="1:9">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:9">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="54" spans="1:9">
-      <c r="A15" s="2">
+    <row r="15" ht="81" spans="1:9">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="1:9">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="94.5" spans="1:9">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="81" spans="1:9">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
+    <row r="18" ht="94.5" spans="1:9">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" ht="81" spans="1:9">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="94.5" spans="1:9">
-      <c r="A19" s="2">
+    <row r="19" ht="81" spans="1:9">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="2">
-        <v>16</v>
+      <c r="F19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="94.5" spans="1:9">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="2">
-        <v>12</v>
+      <c r="E20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="94.5" spans="1:9">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="81" spans="1:9">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="E22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:9">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:9">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="94.5" spans="1:9">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="2">
+    <row r="25" ht="54" spans="1:9">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="94.5" spans="1:9">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="81" spans="1:9">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" ht="67.5" spans="1:9">
-      <c r="A26" s="2">
+    <row r="26" ht="94.5" spans="1:9">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="54" spans="1:9">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="54" spans="1:9">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="94.5" spans="1:9">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="I26" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2635,23 +2535,20 @@
     <hyperlink ref="G9" r:id="rId8" display="https://www.digikey.jp/en/products/detail/tdk-corporation/MPZ2012S102ATD25/5040327?s=N4IgTCBcDaILIAUBaYAMBGMBldqwEEAVAETAFYQBdAXyA"/>
     <hyperlink ref="G10" r:id="rId9" display="https://www.digikey.jp/en/products/detail/murata-electronics/BLM18PG330SN1D/1948325?s=N4IgTCBcDaIEIBkCyBGAHABQOIGYcAYBlAORQBEQBdAXyA"/>
     <hyperlink ref="G11" r:id="rId10" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050"/>
-    <hyperlink ref="G12" r:id="rId11" display="https://www.digikey.jp/en/products/detail/molex/0705430001/114915?s=N4IgTCBcDaIOwAYCsAWAzAWgdgjCAugL5A"/>
-    <hyperlink ref="G13" r:id="rId11" display="https://www.digikey.jp/en/products/detail/molex/0705430001/114915?s=N4IgTCBcDaIOwAYCsAWAzAWgdgjCAugL5A"/>
-    <hyperlink ref="G14" r:id="rId12" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B2P-VH/926547"/>
-    <hyperlink ref="G15" r:id="rId12" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B2P-VH/926547"/>
-    <hyperlink ref="G16" r:id="rId13" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
-    <hyperlink ref="G17" r:id="rId14" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
-    <hyperlink ref="G18" r:id="rId15" display="https://www.digikey.jp/en/products/detail/te-connectivity-passive-product/352118RFT/4279843"/>
-    <hyperlink ref="G19" r:id="rId16" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
-    <hyperlink ref="G20" r:id="rId17" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
-    <hyperlink ref="G21" r:id="rId18" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
-    <hyperlink ref="G22" r:id="rId19" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
-    <hyperlink ref="G23" r:id="rId20" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
-    <hyperlink ref="G24" r:id="rId21" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
-    <hyperlink ref="G25" r:id="rId22" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603JT10K0/1758104"/>
-    <hyperlink ref="G26" r:id="rId23" display="https://www.digikey.jp/en/products/detail/murata-electronics/NCU18XH103F6SRB/7243451"/>
-    <hyperlink ref="G27" r:id="rId24" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1103F3380/1840604"/>
-    <hyperlink ref="G29" r:id="rId25" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
+    <hyperlink ref="G13" r:id="rId11" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
+    <hyperlink ref="G14" r:id="rId12" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
+    <hyperlink ref="G15" r:id="rId13" display="https://www.digikey.jp/en/products/detail/te-connectivity-passive-product/352118RFT/4279843"/>
+    <hyperlink ref="G16" r:id="rId14" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
+    <hyperlink ref="G17" r:id="rId15" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
+    <hyperlink ref="G18" r:id="rId16" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
+    <hyperlink ref="G19" r:id="rId17" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
+    <hyperlink ref="G20" r:id="rId18" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
+    <hyperlink ref="G21" r:id="rId19" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
+    <hyperlink ref="G22" r:id="rId20" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603JT10K0/1758104"/>
+    <hyperlink ref="G23" r:id="rId21" display="https://www.digikey.jp/en/products/detail/murata-electronics/NCU18XH103F6SRB/7243451"/>
+    <hyperlink ref="G24" r:id="rId22" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1103F3380/1840604"/>
+    <hyperlink ref="G26" r:id="rId23" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
+    <hyperlink ref="G25" r:id="rId24" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2102NLT/8021473"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Slaves/ESP32_Slaves_V0/ESP32_Slaves_V0_BOM.xlsx
+++ b/Slaves/ESP32_Slaves_V0/ESP32_Slaves_V0_BOM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\teTra\LTC6811_ESP32\Slaves\ESP32_Slaves_V0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5FB59-488E-4673-B94D-924DD645F811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_Slaves_V0" sheetId="1" r:id="rId1"/>
@@ -27,11 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="165">
   <si>
     <t>NO.</t>
   </si>
   <si>
+    <t>Quality</t>
+  </si>
+  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -53,9 +62,6 @@
     <t>MPN</t>
   </si>
   <si>
-    <t>Quality</t>
-  </si>
-  <si>
     <t>C1-C12, C17, C18, C22-C26</t>
   </si>
   <si>
@@ -437,18 +443,6 @@
     <t>10K</t>
   </si>
   <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>10 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603JT10K0/1758104</t>
-  </si>
-  <si>
-    <t>RMCF0603JT10K0</t>
-  </si>
-  <si>
     <t>TH1-TH3</t>
   </si>
   <si>
@@ -522,19 +516,29 @@
   </si>
   <si>
     <t>LTC6811HG-1#3ZZPBF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0710KL/726880</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yageo.com/upload/media/product/products/datasheet/rchip/PYu-RC_Group_51_RoHS_L_12.pdf</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,7 +558,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,7 +581,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,333 +589,34 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -934,251 +639,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,111 +661,181 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1310,7 +846,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1338,154 +874,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1743,33 +1165,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1797,760 +1220,839 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="94.5" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:9">
+    <row r="3" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:9">
+    <row r="4" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:9">
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="54" spans="1:9">
+    <row r="6" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="54" spans="1:9">
+    <row r="7" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:9">
+    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="81" spans="1:9">
+    <row r="9" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="94.5" spans="1:9">
+    <row r="10" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="54" spans="1:9">
+    <row r="11" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="54" spans="1:9">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="94.5" spans="1:9">
+    <row r="13" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="81" spans="1:9">
+    <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="81" spans="1:9">
+    <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="94.5" spans="1:9">
+    <row r="16" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="94.5" spans="1:9">
+    <row r="17" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="94.5" spans="1:9">
+    <row r="18" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="81" spans="1:9">
+    <row r="19" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="94.5" spans="1:9">
+    <row r="20" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="94.5" spans="1:9">
+    <row r="21" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="81" spans="1:9">
+    <row r="22" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="F22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="67.5" spans="1:9">
+    <row r="23" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="54" spans="1:9">
+    <row r="24" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" ht="54" spans="1:9">
+    <row r="25" spans="1:10" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="I25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="94.5" spans="1:9">
+    <row r="26" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA" tooltip="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.digikey.jp/en/products/detail/yageo/CC0603KRX7R0BB101/5883731"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B105KA8NNNC/3886842"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708" tooltip="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://www.digikey.jp/en/products/detail/diodes-incorporated/1N4148W-7-F/814371"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/BZT52H-C62-115/1162867"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://www.digikey.jp/en/products/detail/liteon/LTST-C190KRKT/386817"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://www.digikey.jp/en/products/detail/tdk-corporation/MPZ2012S102ATD25/5040327?s=N4IgTCBcDaILIAUBaYAMBGMBldqwEEAVAETAFYQBdAXyA"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.digikey.jp/en/products/detail/murata-electronics/BLM18PG330SN1D/1948325?s=N4IgTCBcDaIEIBkCyBGAHABQOIGYcAYBlAORQBEQBdAXyA"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B7B-XH-A/1651050"/>
-    <hyperlink ref="G13" r:id="rId11" display="https://www.digikey.jp/en/products/detail/taiwan-semiconductor-corporation/TSM2323CX-RFG/7360264?s=N4IgTCBcDaICoGUCyYDMaDCANABAJQDEBxHEAXQF8g"/>
-    <hyperlink ref="G14" r:id="rId12" display="https://www.digikey.jp/en/products/detail/onsemi/NSV1C201MZ4T1G/4848737?s=N4IgTCBcDaIHIGUBqBGAwmADCgsgLQBYQBdAXyA"/>
-    <hyperlink ref="G15" r:id="rId13" display="https://www.digikey.jp/en/products/detail/te-connectivity-passive-product/352118RFT/4279843"/>
-    <hyperlink ref="G16" r:id="rId14" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
-    <hyperlink ref="G17" r:id="rId15" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
-    <hyperlink ref="G18" r:id="rId16" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
-    <hyperlink ref="G19" r:id="rId17" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-070RL/726675?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7EnADIgC6AvkA"/>
-    <hyperlink ref="G20" r:id="rId18" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071ML/726678?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwCyAMiALoC%2BQA"/>
-    <hyperlink ref="G21" r:id="rId19" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
-    <hyperlink ref="G22" r:id="rId20" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603JT10K0/1758104"/>
-    <hyperlink ref="G23" r:id="rId21" display="https://www.digikey.jp/en/products/detail/murata-electronics/NCU18XH103F6SRB/7243451"/>
-    <hyperlink ref="G24" r:id="rId22" display="https://www.digikey.jp/en/products/detail/cantherm/MF52C1103F3380/1840604"/>
-    <hyperlink ref="G26" r:id="rId23" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6811HG-1-3ZZPBF/9739208?s=N4IgTCBcDaIDIBUDCA2AHARgwCQOIFoMBiAZgC0yAFAIQDEQBdAXyA"/>
-    <hyperlink ref="G25" r:id="rId24" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2102NLT/8021473"/>
+    <hyperlink ref="H2" r:id="rId1" tooltip="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" tooltip="https://www.digikey.jp/en/products/detail/nexperia-usa-inc/PDZ7-5BZ/7495708" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H22" r:id="rId24" xr:uid="{74D76B65-57C6-487D-9EC2-D9ABFA41396C}"/>
+    <hyperlink ref="F22" r:id="rId25" xr:uid="{E75B28AD-F4DC-4D5B-A72A-35468BE9D761}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>